--- a/biology/Botanique/Eduard_Hackel/Eduard_Hackel.xlsx
+++ b/biology/Botanique/Eduard_Hackel/Eduard_Hackel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eduard Hackel, né le 17 mars 1850 à Haida (Bohême), mort le 2 février 1926 à Attersee (Haute-Autriche), est un botaniste autrichien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est docteur vétérinaire à Haida. Il est marié et a un fils. Il étudie à l'Institut polytechnique de Vienne, et devient professeur  d'histoire naturelle remplaçant au lycée de Sankt Pölten en 1869.
 Il y est titularisé après avoir obtenu son diplôme d'enseignant en 1871 et conserve cette fonction jusqu'à son départ à la retraite en 1900.
@@ -547,7 +561,9 @@
           <t>Principales œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Monographia festucarum europeaearum, 1864.
 Gramineae in Flora Brasiliensis (Martius) , 1883.
